--- a/P05/Scrum_ELSA_Sprint_1.xlsx
+++ b/P05/Scrum_ELSA_Sprint_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcnar\Desktop\cse1325\P05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5149D341-B6FF-4379-B67E-8657AA091465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CC40C9-B7B8-4F99-A732-25DC488FD688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1281,25 +1281,25 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5417,7 +5417,7 @@
   <dimension ref="A1:AMJ99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5535,11 +5535,11 @@
       </c>
       <c r="B8" s="25">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" s="25">
         <f>COUNTIF(E$17:E$994, "Completed Day 1")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="B9" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" s="25">
         <f>COUNTIF(E$17:E$994, "Completed Day 2")</f>
@@ -5571,7 +5571,7 @@
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10" s="25">
         <f>COUNTIF(E$17:E$994, "Completed Day 3")</f>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11" s="25">
         <f>COUNTIF(E$17:E$994, "Completed Day 4")</f>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12" s="25">
         <f>COUNTIF(E$17:E$994, "Completed Day 5")</f>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13" s="25">
         <f>COUNTIF(E$17:E$994, "Completed Day 6")</f>
@@ -5643,7 +5643,7 @@
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$994, "Completed Day 7")</f>
@@ -5717,7 +5717,7 @@
         <v>142</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F18" s="38"/>
     </row>
@@ -5735,7 +5735,7 @@
         <v>143</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F19" s="38"/>
     </row>
@@ -5753,7 +5753,7 @@
         <v>144</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F20" s="38"/>
     </row>

--- a/P05/Scrum_ELSA_Sprint_1.xlsx
+++ b/P05/Scrum_ELSA_Sprint_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcnar\Desktop\cse1325\P05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcnar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CC40C9-B7B8-4F99-A732-25DC488FD688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2BD37F-256B-4E8B-8649-354B3A974399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="150">
   <si>
     <t>Product Name:</t>
   </si>
@@ -452,34 +452,46 @@
     <t>NOTE: This sprint is entirely OPTIONAL – no points will be lost if you ignore it</t>
   </si>
   <si>
+    <t>Finished in Sprint 1</t>
+  </si>
+  <si>
+    <t>JAM</t>
+  </si>
+  <si>
     <t>Jesse McNary</t>
   </si>
   <si>
-    <t>JAM</t>
-  </si>
-  <si>
     <t>ELSA</t>
   </si>
   <si>
     <t>Jam915</t>
   </si>
   <si>
-    <t>Write Customer class</t>
+    <t>Write Customer Class</t>
+  </si>
+  <si>
+    <t>Copy build.xml into repo and test compiule customer</t>
+  </si>
+  <si>
+    <t>Completed Day 1</t>
   </si>
   <si>
     <t>In Work</t>
   </si>
   <si>
-    <t>Copy build.xml into repo and test compile Customer</t>
-  </si>
-  <si>
-    <t>Write TestCustomer regression test</t>
-  </si>
-  <si>
-    <t>Add Customer.java and build.xml to github</t>
-  </si>
-  <si>
-    <t>Completed Day 1</t>
+    <t>Write Option Class</t>
+  </si>
+  <si>
+    <t>Test TestCustromer regression test</t>
+  </si>
+  <si>
+    <t>Test TestOption regression test</t>
+  </si>
+  <si>
+    <t>Add Option.java to Github</t>
+  </si>
+  <si>
+    <t>Add Customer.java and build.xml to Github</t>
   </si>
 </sst>
 </file>
@@ -981,19 +993,19 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1278,28 +1290,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3654,8 +3666,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ94"/>
   <sheetViews>
-    <sheetView topLeftCell="G12" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3679,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
@@ -3697,7 +3709,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="44"/>
@@ -3743,7 +3755,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C5" s="45"/>
       <c r="D5" s="45"/>
@@ -3865,11 +3877,11 @@
       </c>
       <c r="B13" s="5">
         <f>B12-C13</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 1")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="5"/>
@@ -3889,7 +3901,7 @@
       </c>
       <c r="B14" s="5">
         <f>B13-C14</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 2")</f>
@@ -3913,7 +3925,7 @@
       </c>
       <c r="B15" s="5">
         <f>B14-C15</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 3")</f>
@@ -3937,7 +3949,7 @@
       </c>
       <c r="B16" s="5">
         <f>B15-C16</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 4")</f>
@@ -3957,7 +3969,7 @@
       </c>
       <c r="B17" s="5">
         <f>B16-C17</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 4")</f>
@@ -4092,7 +4104,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H24" s="18" t="s">
         <v>31</v>
@@ -4125,7 +4137,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>36</v>
@@ -4157,9 +4169,7 @@
       <c r="F26" s="17">
         <v>1</v>
       </c>
-      <c r="G26" s="17" t="s">
-        <v>141</v>
-      </c>
+      <c r="G26" s="17"/>
       <c r="H26" s="18" t="s">
         <v>31</v>
       </c>
@@ -4188,9 +4198,7 @@
       <c r="F27" s="17">
         <v>1</v>
       </c>
-      <c r="G27" s="17" t="s">
-        <v>141</v>
-      </c>
+      <c r="G27" s="17"/>
       <c r="H27" s="18" t="s">
         <v>31</v>
       </c>
@@ -4219,9 +4227,7 @@
       <c r="F28" s="17">
         <v>1</v>
       </c>
-      <c r="G28" s="17" t="s">
-        <v>141</v>
-      </c>
+      <c r="G28" s="17"/>
       <c r="H28" s="18" t="s">
         <v>31</v>
       </c>
@@ -5414,10 +5420,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMJ99"/>
+  <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="B6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5519,8 +5525,8 @@
         <v>121</v>
       </c>
       <c r="B7" s="25">
-        <f>COUNTA(D17:D994)</f>
-        <v>4</v>
+        <f>COUNTA(D17:D995)</f>
+        <v>7</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -5535,10 +5541,10 @@
       </c>
       <c r="B8" s="25">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" s="25">
-        <f>COUNTIF(E$17:E$994, "Completed Day 1")</f>
+        <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
         <v>4</v>
       </c>
       <c r="D8" s="25"/>
@@ -5553,10 +5559,10 @@
       </c>
       <c r="B9" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9" s="25">
-        <f>COUNTIF(E$17:E$994, "Completed Day 2")</f>
+        <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
         <v>0</v>
       </c>
       <c r="D9" s="25"/>
@@ -5571,10 +5577,10 @@
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10" s="25">
-        <f>COUNTIF(E$17:E$994, "Completed Day 3")</f>
+        <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
         <v>0</v>
       </c>
       <c r="D10" s="25"/>
@@ -5589,10 +5595,10 @@
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11" s="25">
-        <f>COUNTIF(E$17:E$994, "Completed Day 4")</f>
+        <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
         <v>0</v>
       </c>
       <c r="D11" s="25"/>
@@ -5607,10 +5613,10 @@
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C12" s="25">
-        <f>COUNTIF(E$17:E$994, "Completed Day 5")</f>
+        <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
         <v>0</v>
       </c>
       <c r="D12" s="25"/>
@@ -5625,10 +5631,10 @@
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C13" s="25">
-        <f>COUNTIF(E$17:E$994, "Completed Day 6")</f>
+        <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
         <v>0</v>
       </c>
       <c r="D13" s="25"/>
@@ -5643,10 +5649,10 @@
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C14" s="25">
-        <f>COUNTIF(E$17:E$994, "Completed Day 7")</f>
+        <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
         <v>0</v>
       </c>
       <c r="D14" s="25"/>
@@ -5687,7 +5693,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="35" t="s">
         <v>30</v>
@@ -5695,17 +5701,17 @@
       <c r="C17" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="39" t="s">
-        <v>140</v>
+      <c r="D17" s="36" t="s">
+        <v>141</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>30</v>
@@ -5717,13 +5723,13 @@
         <v>142</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="35" t="s">
         <v>30</v>
@@ -5732,16 +5738,16 @@
         <v>137</v>
       </c>
       <c r="D19" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="37" t="s">
         <v>143</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>145</v>
       </c>
       <c r="F19" s="38"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>30</v>
@@ -5750,16 +5756,16 @@
         <v>137</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F20" s="38"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="35"/>
       <c r="C21" s="4"/>
@@ -5769,47 +5775,77 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>7</v>
-      </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>144</v>
+      </c>
       <c r="F22" s="38"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>8</v>
-      </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>144</v>
+      </c>
       <c r="F23" s="38"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>9</v>
-      </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="37"/>
+        <v>8</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>144</v>
+      </c>
       <c r="F24" s="38"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>10</v>
-      </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="D25" s="39"/>
-      <c r="E25" s="37"/>
+      <c r="E25" s="37" t="s">
+        <v>144</v>
+      </c>
       <c r="F25" s="38"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" s="35"/>
       <c r="C26" s="4"/>
@@ -5819,7 +5855,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" s="35"/>
       <c r="C27" s="4"/>
@@ -5829,7 +5865,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" s="35"/>
       <c r="C28" s="4"/>
@@ -5839,7 +5875,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" s="35"/>
       <c r="C29" s="4"/>
@@ -5849,7 +5885,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" s="35"/>
       <c r="C30" s="4"/>
@@ -5859,7 +5895,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="35"/>
       <c r="C31" s="4"/>
@@ -5869,7 +5905,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" s="35"/>
       <c r="C32" s="4"/>
@@ -5879,7 +5915,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" s="35"/>
       <c r="C33" s="4"/>
@@ -5889,7 +5925,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="4"/>
@@ -5899,7 +5935,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35" s="35"/>
       <c r="C35" s="4"/>
@@ -5909,7 +5945,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B36" s="35"/>
       <c r="C36" s="4"/>
@@ -5919,7 +5955,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B37" s="35"/>
       <c r="C37" s="4"/>
@@ -5929,7 +5965,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38" s="35"/>
       <c r="C38" s="4"/>
@@ -5939,7 +5975,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" s="35"/>
       <c r="C39" s="4"/>
@@ -5949,7 +5985,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40" s="35"/>
       <c r="C40" s="4"/>
@@ -5959,7 +5995,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41" s="35"/>
       <c r="C41" s="4"/>
@@ -5969,7 +6005,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B42" s="35"/>
       <c r="C42" s="4"/>
@@ -5979,7 +6015,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" s="35"/>
       <c r="C43" s="4"/>
@@ -5989,7 +6025,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44" s="35"/>
       <c r="C44" s="4"/>
@@ -5999,7 +6035,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B45" s="35"/>
       <c r="C45" s="4"/>
@@ -6009,7 +6045,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B46" s="35"/>
       <c r="C46" s="4"/>
@@ -6019,7 +6055,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B47" s="35"/>
       <c r="C47" s="4"/>
@@ -6029,7 +6065,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B48" s="35"/>
       <c r="C48" s="4"/>
@@ -6039,7 +6075,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B49" s="35"/>
       <c r="C49" s="4"/>
@@ -6049,7 +6085,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B50" s="35"/>
       <c r="C50" s="4"/>
@@ -6059,7 +6095,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B51" s="35"/>
       <c r="C51" s="4"/>
@@ -6069,7 +6105,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B52" s="35"/>
       <c r="C52" s="4"/>
@@ -6079,7 +6115,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B53" s="35"/>
       <c r="C53" s="4"/>
@@ -6089,7 +6125,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B54" s="35"/>
       <c r="C54" s="4"/>
@@ -6099,7 +6135,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B55" s="35"/>
       <c r="C55" s="4"/>
@@ -6109,7 +6145,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="35"/>
       <c r="C56" s="4"/>
@@ -6119,7 +6155,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B57" s="35"/>
       <c r="C57" s="4"/>
@@ -6129,7 +6165,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B58" s="35"/>
       <c r="C58" s="4"/>
@@ -6139,7 +6175,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B59" s="35"/>
       <c r="C59" s="4"/>
@@ -6149,7 +6185,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B60" s="35"/>
       <c r="C60" s="4"/>
@@ -6159,7 +6195,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B61" s="35"/>
       <c r="C61" s="4"/>
@@ -6169,7 +6205,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B62" s="35"/>
       <c r="C62" s="4"/>
@@ -6179,7 +6215,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B63" s="35"/>
       <c r="C63" s="4"/>
@@ -6189,7 +6225,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B64" s="35"/>
       <c r="C64" s="4"/>
@@ -6199,7 +6235,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B65" s="35"/>
       <c r="C65" s="4"/>
@@ -6209,7 +6245,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B66" s="35"/>
       <c r="C66" s="4"/>
@@ -6219,7 +6255,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B67" s="35"/>
       <c r="C67" s="4"/>
@@ -6229,7 +6265,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B68" s="35"/>
       <c r="C68" s="4"/>
@@ -6239,7 +6275,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B69" s="35"/>
       <c r="C69" s="4"/>
@@ -6249,7 +6285,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B70" s="35"/>
       <c r="C70" s="4"/>
@@ -6259,7 +6295,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B71" s="35"/>
       <c r="C71" s="4"/>
@@ -6269,7 +6305,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B72" s="35"/>
       <c r="C72" s="4"/>
@@ -6279,7 +6315,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B73" s="35"/>
       <c r="C73" s="4"/>
@@ -6289,7 +6325,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B74" s="35"/>
       <c r="C74" s="4"/>
@@ -6299,7 +6335,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B75" s="35"/>
       <c r="C75" s="4"/>
@@ -6309,7 +6345,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B76" s="35"/>
       <c r="C76" s="4"/>
@@ -6319,7 +6355,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B77" s="35"/>
       <c r="C77" s="4"/>
@@ -6329,7 +6365,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B78" s="35"/>
       <c r="C78" s="4"/>
@@ -6339,7 +6375,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B79" s="35"/>
       <c r="C79" s="4"/>
@@ -6349,7 +6385,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B80" s="35"/>
       <c r="C80" s="4"/>
@@ -6359,7 +6395,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B81" s="35"/>
       <c r="C81" s="4"/>
@@ -6369,7 +6405,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B82" s="35"/>
       <c r="C82" s="4"/>
@@ -6379,7 +6415,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B83" s="35"/>
       <c r="C83" s="4"/>
@@ -6389,7 +6425,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B84" s="35"/>
       <c r="C84" s="4"/>
@@ -6399,7 +6435,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B85" s="35"/>
       <c r="C85" s="4"/>
@@ -6409,7 +6445,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B86" s="35"/>
       <c r="C86" s="4"/>
@@ -6419,7 +6455,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B87" s="35"/>
       <c r="C87" s="4"/>
@@ -6429,7 +6465,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B88" s="35"/>
       <c r="C88" s="4"/>
@@ -6439,7 +6475,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B89" s="35"/>
       <c r="C89" s="4"/>
@@ -6449,7 +6485,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B90" s="35"/>
       <c r="C90" s="4"/>
@@ -6459,7 +6495,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B91" s="35"/>
       <c r="C91" s="4"/>
@@ -6469,7 +6505,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B92" s="35"/>
       <c r="C92" s="4"/>
@@ -6479,7 +6515,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B93" s="35"/>
       <c r="C93" s="4"/>
@@ -6489,7 +6525,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B94" s="35"/>
       <c r="C94" s="4"/>
@@ -6499,7 +6535,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B95" s="35"/>
       <c r="C95" s="4"/>
@@ -6509,7 +6545,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B96" s="35"/>
       <c r="C96" s="4"/>
@@ -6519,7 +6555,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B97" s="35"/>
       <c r="C97" s="4"/>
@@ -6529,7 +6565,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B98" s="35"/>
       <c r="C98" s="4"/>
@@ -6539,7 +6575,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B99" s="35"/>
       <c r="C99" s="4"/>
@@ -6547,21 +6583,31 @@
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
+        <v>84</v>
+      </c>
+      <c r="B100" s="35"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="37"/>
+      <c r="F100" s="38"/>
+    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task Description" prompt="Select a Feature ID to the left. Then, in this column, list each discrete task needed to implement that feature._x000a__x000a_Example tasks might be &quot;create the Foo class&quot;, &quot;add the Bar method to the (existing) Qux class&quot;, &quot;Find icons for the task bar&quot;, &quot;Update the m" sqref="D17:D99" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task ID" prompt="This is just an arbitrary unique (per sprint) integer assigned to a task, used by the team to refer to that task. " sqref="A17:A100" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task ID" prompt="This is just an arbitrary unique (per sprint) integer assigned to a task, used by the team to refer to that task. " sqref="A17:A99" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task Description" prompt="Select a Feature ID to the left. Then, in this column, list each discrete task needed to implement that feature._x000a__x000a_Example tasks might be &quot;create the Foo class&quot;, &quot;add the Bar method to the (existing) Qux class&quot;, &quot;Find icons for the task bar&quot;, &quot;Update the m" sqref="D18:D100" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Value" error="This cell may only contain a valid status value (hint: use the drop-down selection list) or be left blank (hint: use the Delete key)" promptTitle="Implementation Status" prompt="Leave blank until task is begun._x000a_Select &quot;In Work&quot; when started (for long tasks only)._x000a_Select Completed ONLY when this task is done._x000a_    Select &quot;Completed Day 1&quot; if finished on the first day, and_x000a_    similarly for &quot;Completed on Day 2&quot; et. al." sqref="E17:E99" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Value" error="This cell may only contain a valid status value (hint: use the drop-down selection list) or be left blank (hint: use the Delete key)" promptTitle="Implementation Status" prompt="Leave blank until task is begun._x000a_Select &quot;In Work&quot; when started (for long tasks only)._x000a_Select Completed ONLY when this task is done._x000a_    Select &quot;Completed Day 1&quot; if finished on the first day, and_x000a_    similarly for &quot;Completed on Day 2&quot; et. al." sqref="E17:E100" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>"In Work,Completed Day 1,Completed Day 2,Completed Day 3,Completed Day 4,Completed Day 5,Completed Day 6,Completed Day 7"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OPTIONAL" prompt="You may add any notes here that help understand the requirements and scope for this task" sqref="F17:F99" xr:uid="{00000000-0002-0000-0100-000005000000}">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OPTIONAL" prompt="You may add any notes here that help understand the requirements and scope for this task" sqref="F17:F100" xr:uid="{00000000-0002-0000-0100-000005000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6583,7 +6629,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>B17:B99</xm:sqref>
+          <xm:sqref>B17:B100</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Feature ID from Product Backlog" prompt="Exactly ONE team member may be responsible for any task, and they will receive grade credit for their work._x000a__x000a_If you have more than one person on your team, each member MUST select their initials for each task the agree to perform. Use this to ensure that " xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
@@ -6592,7 +6638,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>C17:C99</xm:sqref>
+          <xm:sqref>C17:C100</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/P05/Scrum_ELSA_Sprint_1.xlsx
+++ b/P05/Scrum_ELSA_Sprint_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcnar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcnar\Desktop\cse1325\P05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2BD37F-256B-4E8B-8649-354B3A974399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EC064D-1271-4A46-A304-A6D1AF130ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="150">
   <si>
     <t>Product Name:</t>
   </si>
@@ -502,7 +502,7 @@
     <numFmt numFmtId="164" formatCode="mmm\ dd"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -565,6 +565,12 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -646,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -770,6 +776,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -993,19 +1002,19 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1293,25 +1302,25 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3666,8 +3675,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3686,7 +3695,7 @@
     <col min="12" max="1024" width="11.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3704,7 +3713,7 @@
       </c>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -3720,7 +3729,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -3732,7 +3741,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -3750,7 +3759,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -3765,12 +3774,16 @@
       <c r="H5" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="45">
         <v>1001942779</v>
       </c>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+    </row>
+    <row r="6" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -3782,7 +3795,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
@@ -3794,7 +3807,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
@@ -3806,7 +3819,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
@@ -3818,7 +3831,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -3830,7 +3843,7 @@
       <c r="I10"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -3850,7 +3863,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>0</v>
       </c>
@@ -3871,17 +3884,17 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>1</v>
       </c>
       <c r="B13" s="5">
         <f>B12-C13</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 1")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="5"/>
@@ -3895,13 +3908,13 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>2</v>
       </c>
       <c r="B14" s="5">
         <f>B13-C14</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 2")</f>
@@ -3919,13 +3932,13 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>3</v>
       </c>
       <c r="B15" s="5">
         <f>B14-C15</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 3")</f>
@@ -3943,13 +3956,13 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>4</v>
       </c>
       <c r="B16" s="5">
         <f>B15-C16</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 4")</f>
@@ -3969,7 +3982,7 @@
       </c>
       <c r="B17" s="5">
         <f>B16-C17</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 4")</f>
@@ -4137,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>36</v>
@@ -4169,7 +4182,9 @@
       <c r="F26" s="17">
         <v>1</v>
       </c>
-      <c r="G26" s="17"/>
+      <c r="G26" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="H26" s="18" t="s">
         <v>31</v>
       </c>
@@ -5344,7 +5359,8 @@
       <c r="K94" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="I5:N5"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="F22:G22"/>
@@ -5363,7 +5379,7 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Name" prompt="Please enter your name as it appears in Blackboard." sqref="B5:B9" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Name" prompt="Please enter your name as it appears in Blackboard." sqref="B5:B9 I5" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5371,7 +5387,7 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Student ID" prompt="Please enter your UTA student ID number." sqref="I5:I9" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Student ID" prompt="Please enter your UTA student ID number." sqref="I6:I9" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5422,8 +5438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5541,11 +5557,11 @@
       </c>
       <c r="B8" s="25">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
@@ -5559,7 +5575,7 @@
       </c>
       <c r="B9" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -5577,7 +5593,7 @@
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -5595,7 +5611,7 @@
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -5613,7 +5629,7 @@
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -5631,7 +5647,7 @@
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -5649,7 +5665,7 @@
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -5701,7 +5717,7 @@
       <c r="C17" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="46" t="s">
         <v>141</v>
       </c>
       <c r="E17" s="37" t="s">
@@ -5787,7 +5803,7 @@
         <v>145</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F22" s="38"/>
     </row>
@@ -5805,7 +5821,7 @@
         <v>147</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F23" s="38"/>
     </row>
@@ -5823,7 +5839,7 @@
         <v>148</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F24" s="38"/>
     </row>
@@ -5831,16 +5847,10 @@
       <c r="A25" s="4">
         <v>9</v>
       </c>
-      <c r="B25" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>137</v>
-      </c>
+      <c r="B25" s="35"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="39"/>
-      <c r="E25" s="37" t="s">
-        <v>144</v>
-      </c>
+      <c r="E25" s="37"/>
       <c r="F25" s="38"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -6613,12 +6623,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">

--- a/P05/Scrum_ELSA_Sprint_1.xlsx
+++ b/P05/Scrum_ELSA_Sprint_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcnar\Desktop\cse1325\P05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EC064D-1271-4A46-A304-A6D1AF130ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75EBAB7-B7D0-4CC4-8D01-7EE4BEE89C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="154">
   <si>
     <t>Product Name:</t>
   </si>
@@ -476,9 +476,6 @@
     <t>Completed Day 1</t>
   </si>
   <si>
-    <t>In Work</t>
-  </si>
-  <si>
     <t>Write Option Class</t>
   </si>
   <si>
@@ -492,6 +489,21 @@
   </si>
   <si>
     <t>Add Customer.java and build.xml to Github</t>
+  </si>
+  <si>
+    <t>Add name, model and options fields</t>
+  </si>
+  <si>
+    <t>Create constructer</t>
+  </si>
+  <si>
+    <t>add addOptions, cost, toString, and equals methods</t>
+  </si>
+  <si>
+    <t>Write Computer Class</t>
+  </si>
+  <si>
+    <t>Add Computer.java to github</t>
   </si>
 </sst>
 </file>
@@ -762,6 +774,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -773,12 +791,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1002,19 +1014,19 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1299,7 +1311,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3675,8 +3687,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3699,14 +3711,14 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6" t="s">
         <v>1</v>
@@ -3717,14 +3729,14 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -3763,70 +3775,70 @@
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
       <c r="H5" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="42">
         <v>1001942779</v>
       </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
     </row>
     <row r="6" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="5"/>
@@ -3890,11 +3902,11 @@
       </c>
       <c r="B13" s="5">
         <f>B12-C13</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 1")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="5"/>
@@ -3914,7 +3926,7 @@
       </c>
       <c r="B14" s="5">
         <f>B13-C14</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 2")</f>
@@ -3938,7 +3950,7 @@
       </c>
       <c r="B15" s="5">
         <f>B14-C15</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 3")</f>
@@ -3962,7 +3974,7 @@
       </c>
       <c r="B16" s="5">
         <f>B15-C16</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 4")</f>
@@ -3982,7 +3994,7 @@
       </c>
       <c r="B17" s="5">
         <f>B16-C17</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 4")</f>
@@ -4054,10 +4066,10 @@
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="42" t="s">
+      <c r="F22" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="42"/>
+      <c r="G22" s="44"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13" t="s">
         <v>19</v>
@@ -4183,7 +4195,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H26" s="18" t="s">
         <v>31</v>
@@ -5438,8 +5450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="B9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5542,7 +5554,7 @@
       </c>
       <c r="B7" s="25">
         <f>COUNTA(D17:D995)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -5561,7 +5573,7 @@
       </c>
       <c r="C8" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
@@ -5717,7 +5729,7 @@
       <c r="C17" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="41" t="s">
         <v>141</v>
       </c>
       <c r="E17" s="37" t="s">
@@ -5754,7 +5766,7 @@
         <v>137</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E19" s="37" t="s">
         <v>143</v>
@@ -5772,7 +5784,7 @@
         <v>137</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E20" s="37" t="s">
         <v>143</v>
@@ -5800,7 +5812,7 @@
         <v>137</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E22" s="37" t="s">
         <v>143</v>
@@ -5818,7 +5830,7 @@
         <v>137</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E23" s="37" t="s">
         <v>143</v>
@@ -5836,7 +5848,7 @@
         <v>137</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E24" s="37" t="s">
         <v>143</v>
@@ -5857,50 +5869,90 @@
       <c r="A26" s="4">
         <v>10</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="37"/>
+      <c r="B26" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>143</v>
+      </c>
       <c r="F26" s="38"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>11</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="37"/>
+      <c r="B27" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>143</v>
+      </c>
       <c r="F27" s="38"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>12</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="37"/>
+      <c r="B28" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>143</v>
+      </c>
       <c r="F28" s="38"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>13</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="37"/>
+      <c r="B29" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>143</v>
+      </c>
       <c r="F29" s="38"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>14</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="37"/>
+      <c r="B30" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>143</v>
+      </c>
       <c r="F30" s="38"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">

--- a/P05/Scrum_ELSA_Sprint_1.xlsx
+++ b/P05/Scrum_ELSA_Sprint_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcnar\Desktop\cse1325\P05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75EBAB7-B7D0-4CC4-8D01-7EE4BEE89C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7AD2BF-446F-41F4-911A-C293F96DF207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="161">
   <si>
     <t>Product Name:</t>
   </si>
@@ -504,6 +504,27 @@
   </si>
   <si>
     <t>Add Computer.java to github</t>
+  </si>
+  <si>
+    <t>In Work</t>
+  </si>
+  <si>
+    <t>Write Order class</t>
+  </si>
+  <si>
+    <t>Add nextOrderNumber, orderNumber, customer and computers fields</t>
+  </si>
+  <si>
+    <t>Write constructor</t>
+  </si>
+  <si>
+    <t>Write addComputer, toString, and equals methods</t>
+  </si>
+  <si>
+    <t>Test TestOrder regression test</t>
+  </si>
+  <si>
+    <t>Add Order to Github</t>
   </si>
 </sst>
 </file>
@@ -1311,28 +1332,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3687,7 +3708,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -4225,7 +4246,9 @@
       <c r="F27" s="17">
         <v>1</v>
       </c>
-      <c r="G27" s="17"/>
+      <c r="G27" s="17" t="s">
+        <v>154</v>
+      </c>
       <c r="H27" s="18" t="s">
         <v>31</v>
       </c>
@@ -5450,8 +5473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="D27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5554,7 +5577,7 @@
       </c>
       <c r="B7" s="25">
         <f>COUNTA(D17:D995)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -5569,11 +5592,11 @@
       </c>
       <c r="B8" s="25">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
@@ -5587,7 +5610,7 @@
       </c>
       <c r="B9" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -5605,7 +5628,7 @@
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -5623,7 +5646,7 @@
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -5641,7 +5664,7 @@
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C12" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -5659,7 +5682,7 @@
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C13" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -5677,7 +5700,7 @@
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -5969,60 +5992,108 @@
       <c r="A32" s="4">
         <v>16</v>
       </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="37"/>
+      <c r="B32" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>143</v>
+      </c>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>17</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="37"/>
+      <c r="B33" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>143</v>
+      </c>
       <c r="F33" s="38"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>18</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="37"/>
+      <c r="B34" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>143</v>
+      </c>
       <c r="F34" s="38"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>19</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="37"/>
+      <c r="B35" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="F35" s="38"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>20</v>
       </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="37"/>
+      <c r="B36" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="F36" s="38"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>21</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="37"/>
+      <c r="B37" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="F37" s="38"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">

--- a/P05/Scrum_ELSA_Sprint_1.xlsx
+++ b/P05/Scrum_ELSA_Sprint_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcnar\Desktop\cse1325\P05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7AD2BF-446F-41F4-911A-C293F96DF207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCE5943-257B-4E66-A1DA-6230C9E7B805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="167">
   <si>
     <t>Product Name:</t>
   </si>
@@ -506,9 +506,6 @@
     <t>Add Computer.java to github</t>
   </si>
   <si>
-    <t>In Work</t>
-  </si>
-  <si>
     <t>Write Order class</t>
   </si>
   <si>
@@ -525,6 +522,27 @@
   </si>
   <si>
     <t>Add Order to Github</t>
+  </si>
+  <si>
+    <t>Completed Day 2</t>
+  </si>
+  <si>
+    <t>Create Object Customer</t>
+  </si>
+  <si>
+    <t>Create Object Option</t>
+  </si>
+  <si>
+    <t>Create Object Computer</t>
+  </si>
+  <si>
+    <t>Create Object Order</t>
+  </si>
+  <si>
+    <t>Confirm all 4 objects are created without error</t>
+  </si>
+  <si>
+    <t>Add, commit, push Sprint 1</t>
   </si>
 </sst>
 </file>
@@ -1035,19 +1053,19 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1332,28 +1350,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3708,8 +3726,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ94"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3923,11 +3941,11 @@
       </c>
       <c r="B13" s="5">
         <f>B12-C13</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 1")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="5"/>
@@ -3947,7 +3965,7 @@
       </c>
       <c r="B14" s="5">
         <f>B13-C14</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 2")</f>
@@ -3971,7 +3989,7 @@
       </c>
       <c r="B15" s="5">
         <f>B14-C15</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 3")</f>
@@ -3995,7 +4013,7 @@
       </c>
       <c r="B16" s="5">
         <f>B15-C16</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 4")</f>
@@ -4015,7 +4033,7 @@
       </c>
       <c r="B17" s="5">
         <f>B16-C17</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 4")</f>
@@ -4247,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="H27" s="18" t="s">
         <v>31</v>
@@ -4277,7 +4295,9 @@
       <c r="F28" s="17">
         <v>1</v>
       </c>
-      <c r="G28" s="17"/>
+      <c r="G28" s="17" t="s">
+        <v>136</v>
+      </c>
       <c r="H28" s="18" t="s">
         <v>31</v>
       </c>
@@ -4303,7 +4323,9 @@
       <c r="E29" s="21">
         <v>21</v>
       </c>
-      <c r="F29" s="17"/>
+      <c r="F29" s="17">
+        <v>2</v>
+      </c>
       <c r="G29" s="17"/>
       <c r="H29" s="18" t="s">
         <v>31</v>
@@ -4332,7 +4354,9 @@
       <c r="E30" s="21">
         <v>8</v>
       </c>
-      <c r="F30" s="17"/>
+      <c r="F30" s="17">
+        <v>2</v>
+      </c>
       <c r="G30" s="17"/>
       <c r="H30" s="18" t="s">
         <v>31</v>
@@ -4361,7 +4385,9 @@
       <c r="E31" s="21">
         <v>5</v>
       </c>
-      <c r="F31" s="17"/>
+      <c r="F31" s="17">
+        <v>2</v>
+      </c>
       <c r="G31" s="17"/>
       <c r="H31" s="18" t="s">
         <v>31</v>
@@ -5473,8 +5499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5577,7 +5603,7 @@
       </c>
       <c r="B7" s="25">
         <f>COUNTA(D17:D995)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -5592,11 +5618,11 @@
       </c>
       <c r="B8" s="25">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C8" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
@@ -5610,11 +5636,11 @@
       </c>
       <c r="B9" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -5628,7 +5654,7 @@
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -5646,7 +5672,7 @@
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -5664,7 +5690,7 @@
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -5682,7 +5708,7 @@
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -5700,7 +5726,7 @@
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -5999,7 +6025,7 @@
         <v>137</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E32" s="37" t="s">
         <v>143</v>
@@ -6017,7 +6043,7 @@
         <v>137</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E33" s="37" t="s">
         <v>143</v>
@@ -6035,10 +6061,10 @@
         <v>137</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="F34" s="38"/>
     </row>
@@ -6053,10 +6079,10 @@
         <v>137</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F35" s="38"/>
     </row>
@@ -6071,10 +6097,10 @@
         <v>137</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F36" s="38"/>
     </row>
@@ -6089,10 +6115,10 @@
         <v>137</v>
       </c>
       <c r="D37" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="E37" s="37" t="s">
         <v>160</v>
-      </c>
-      <c r="E37" s="37" t="s">
-        <v>154</v>
       </c>
       <c r="F37" s="38"/>
     </row>
@@ -6110,60 +6136,108 @@
       <c r="A39" s="4">
         <v>23</v>
       </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="37"/>
+      <c r="B39" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>160</v>
+      </c>
       <c r="F39" s="38"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>24</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="37"/>
+      <c r="B40" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>160</v>
+      </c>
       <c r="F40" s="38"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>25</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="37"/>
+      <c r="B41" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>160</v>
+      </c>
       <c r="F41" s="38"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>26</v>
       </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="37"/>
+      <c r="B42" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>160</v>
+      </c>
       <c r="F42" s="38"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>27</v>
       </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="37"/>
+      <c r="B43" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>160</v>
+      </c>
       <c r="F43" s="38"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>28</v>
       </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="37"/>
+      <c r="B44" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>160</v>
+      </c>
       <c r="F44" s="38"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
